--- a/Examples/eggs/eggs_model.xlsx
+++ b/Examples/eggs/eggs_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\eggs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6A4E37-9C69-48DB-8639-0DE804990825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D111752-9067-41D1-BA58-C3723AC209BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="345" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -889,14 +889,14 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
@@ -908,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -925,13 +925,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -942,13 +942,13 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -959,13 +959,13 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -980,7 +980,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D4</xm:sqref>
+          <xm:sqref>B2:B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1182,8 +1182,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
